--- a/docs/PT1/PT1_06.08.24_output.xlsx
+++ b/docs/PT1/PT1_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2411 +505,2859 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731004139.3847487</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731004139.9940906</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004139.3847487.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004139.9940906.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.05</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.04</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731004140.5117047</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731004140.829884</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004140.5117047.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004140.829884.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.79</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.29</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731004141.7264822</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731004142.1024766</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004141.7264822.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004142.1024766.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.38</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278.79</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.589999999999975</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731004145.474453</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731004145.88732</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004145.474453.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731004145.88732.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.65</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.94</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2900000000000205</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731004171.1132894</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731004171.8443322</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004171.1132894.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004171.8443322.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.18</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.12</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731004174.5640824</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731004175.5673974</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004174.5640824.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731004175.5673974.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>128.39</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.58</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.1900000000000261</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731004190.6808796</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731004192.5000184</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004190.6808796.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004192.5000184.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6448</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6450.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731004193.47439</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731004193.8693335</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004193.47439.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004193.8693335.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6459</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6452</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731004202.940294</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731004203.8152652</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004202.940294.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004203.8152652.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6387.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6384</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731004204.1912944</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731004204.4775</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004204.1912944.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004204.4775.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6409</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6392</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>17</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731004205.3870943</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731004205.8767838</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004205.3870943.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004205.8767838.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6409</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6403.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731004206.3604612</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731004207.0376492</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004206.3604612.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731004207.0376492.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6414.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6426.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731004235.298401</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731004235.951423</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731004235.298401.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731004235.951423.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>493.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>494.15</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.6499999999999773</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731004236.8120964</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731004237.0096257</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731004236.8120964.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731004237.0096257.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>495.95</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>494.2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.75</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731004238.0126438</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731004238.833054</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731004238.0126438.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731004238.833054.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>494.9</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>494.25</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731004245.6825035</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731004245.6825035.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+          <t>./test_images/ROSN1731004245.6825035.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>495.3</v>
       </c>
-      <c r="J18" t="n">
-        <v>495.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>495.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731004267.3247159</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731004267.7744837</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004267.3247159.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004267.7744837.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>225.55</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>225.46</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731004269.7033246</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731004270.1511273</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004269.7033246.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004270.1511273.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>226.36</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>226</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731004273.6344345</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731004273.9117212</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004273.6344345.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731004273.9117212.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>226.11</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>226.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731004288.6665373</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731004289.0952291</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004288.6665373.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004289.0952291.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1010</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1009</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731004298.7886918</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731004299.7608516</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004298.7886918.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004299.7608516.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1004.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1004.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731004305.8363116</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731004306.0625358</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004305.8363116.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004306.0625358.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1004.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1005.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731004307.8749685</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731004308.5996382</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004307.8749685.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004308.5996382.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1007.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1006.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731004309.0501144</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731004309.9624631</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004309.0501144.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731004309.9624631.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1008</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1007.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731004318.4290788</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731004318.9108107</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004318.4290788.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004318.9108107.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.868</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11.865</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731004319.6239028</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731004322.905333</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004319.6239028.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004322.905333.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.872</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11.907</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.03500000000000014</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731004331.7931986</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731004332.2920148</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004331.7931986.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004332.2920148.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.913</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.922</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.009000000000000341</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731004333.3676422</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731004333.7416587</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004333.3676422.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004333.7416587.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.914</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.917</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731004333.8933861</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731004334.3072767</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004333.8933861.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731004334.3072767.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.91</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.914</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731004338.6678588</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731004338.6678588.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+          <t>./test_images/CNY1731004338.6678588.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.913</v>
       </c>
-      <c r="J32" t="n">
-        <v>11.913</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>11.916</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731004362.049136</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731004363.72528</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004362.049136.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004363.72528.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>125</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>125.42</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.4200000000000017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731004366.0988467</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731004367.8313892</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004366.0988467.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731004367.8313892.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>125.12</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>125.1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731004384.0022016</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731004385.2448838</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004384.0022016.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004385.2448838.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>160</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>160.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731004393.3177524</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731004393.8712711</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004393.3177524.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004393.8712711.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>159.48</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>159.28</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731004396.7570107</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731004396.9464762</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004396.7570107.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731004396.9464762.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>159.46</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>159.06</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731004405.2655733</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731004406.1426785</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004405.2655733.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004406.1426785.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>49.12</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>49.07</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731004412.701077</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731004413.2901444</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004412.701077.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004413.2901444.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>48.975</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>48.98</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.004999999999995453</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731004416.2668009</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731004417.2334774</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004416.2668009.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004417.2334774.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>49.105</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>49.11</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731004425.347667</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731004425.7559614</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004425.347667.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004425.7559614.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>48.92</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>48.815</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.105000000000004</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731004426.8008146</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731004428.0133958</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004426.8008146.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731004428.0133958.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>48.935</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>48.97</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.03499999999999659</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731004435.3509061</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731004435.3509061.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+          <t>./test_images/MAGN1731004435.3509061.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>49</v>
       </c>
-      <c r="J43" t="n">
-        <v>49</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>49.105</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1049999999999969</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731004448.0596073</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731004448.561288</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731004448.0596073.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731004448.561288.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1386</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1385.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731004486.7931004</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731004488.1055932</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004486.7931004.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004488.1055932.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>59.48</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>59.57</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731004490.6637943</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731004491.0697715</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004490.6637943.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731004491.0697715.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>59.74</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>59.64</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731004519.012903</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731004519.6431468</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004519.012903.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004519.6431468.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>96.06</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>96.05</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731004523.0998697</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731004523.6349947</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004523.0998697.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004523.6349947.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>95.98</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>96.13</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1499999999999915</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731004524.4958646</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731004525.3346908</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004524.4958646.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731004525.3346908.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>95.94</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>95.95</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731004549.778672</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731004550.1299787</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731004549.778672.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731004550.1299787.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>55.72</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>55.44</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731004559.400634</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731004559.400634.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+          <t>./test_images/SELG1731004559.400634.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>55.45</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>55.45</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2902,678 +3365,804 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731004574.0422187</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731004576.1461143</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731004574.0422187.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731004576.1461143.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>143.12</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>142.58</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.539999999999992</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731004609.7426078</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731004610.7344718</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731004609.7426078.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731004610.7344718.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>19.782</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>19.819</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.03699999999999903</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731004614.1290486</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731004614.1898856</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731004614.1290486.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731004614.1898856.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>19.949</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>19.954</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.004999999999999005</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731004634.0736847</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731004636.7104974</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731004634.0736847.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731004636.7104974.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>666.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>662.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-3.600000000000023</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731004653.4713297</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731004653.9975927</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731004653.4713297.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731004653.9975927.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>155.26</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>154.85</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731004675.5964835</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731004677.1537426</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731004675.5964835.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731004677.1537426.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>148.52</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>148.84</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.3199999999999932</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731004683.1393116</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731004683.1393116.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+          <t>./test_images/MTLR1731004683.1393116.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>149.03</v>
       </c>
-      <c r="J58" t="n">
-        <v>149.03</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>149.36</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.3300000000000125</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731004703.3936226</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731004704.2055173</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731004703.3936226.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731004704.2055173.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.09542</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.09516000000000001</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.0002599999999999963</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731004705.588509</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731004706.9011931</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731004705.588509.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731004706.9011931.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.09548000000000001</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.09544000000000001</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>3.999999999999837e-05</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731004733.454424</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731004733.9760282</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004733.454424.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004733.9760282.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>2899.45</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>2898.45</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731004735.7680907</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731004736.1252031</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004735.7680907.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004736.1252031.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>2903.95</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>2901.05</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>2.899999999999636</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731004736.7615354</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731004736.9769886</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004736.7615354.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004736.9769886.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>2905.85</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>2902.5</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>3.349999999999909</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731004737.784413</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731004738.1430013</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004737.784413.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004738.1430013.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>2898.15</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>2901.35</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>3.199999999999818</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731004739.7169538</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731004740.109695</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004739.7169538.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731004740.109695.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>2898.85</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>2900.8</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.950000000000273</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +4176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3611,6 +4200,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3619,11 +4223,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01600000000000001</v>
+        <v>-0.01900000000000013</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.003166666666666688</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3637,6 +4250,15 @@
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>3.083333333333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3645,11 +4267,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1100000000000065</v>
+        <v>0.005000000000009663</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.0008333333333349439</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3663,6 +4294,15 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000136</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3676,6 +4316,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>2.479999999999927</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3689,6 +4338,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.3474999999999966</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3697,11 +4355,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.75</v>
+        <v>1.449999999999989</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.3624999999999972</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3710,11 +4377,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09000000000000341</v>
+        <v>-0.2400000000000091</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.08000000000000303</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3728,6 +4404,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.1333333333333352</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3741,6 +4426,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.05666666666666723</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3754,6 +4448,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.2133333333333383</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3767,6 +4470,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3780,6 +4492,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.02099999999999902</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3793,6 +4514,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.004999999999999005</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01999999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3806,6 +4536,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.220000000000006</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3819,6 +4558,15 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.06500000000001194</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.09999999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3832,6 +4580,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.0001499999999999974</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3845,6 +4602,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-3.600000000000023</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3858,6 +4624,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.539999999999992</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3871,6 +4646,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3884,6 +4668,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
